--- a/target/classes/data.xlsx
+++ b/target/classes/data.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12315" windowHeight="7410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:L22"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>admin123</t>
   </si>
@@ -36,6 +37,9 @@
   </si>
   <si>
     <t>US - FMLA</t>
+  </si>
+  <si>
+    <t>wrongpass</t>
   </si>
 </sst>
 </file>
@@ -379,8 +383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,7 +394,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -410,7 +414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
